--- a/graph_plotting/Data_Input_Graph_Plotting.xlsx
+++ b/graph_plotting/Data_Input_Graph_Plotting.xlsx
@@ -8,35 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkuehn\git\bs_Twitch\graph_plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC70BECB-F695-4571-B9C1-FB6DF5B3610D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210D05F5-B99D-45A6-B050-9A2848DDB342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="6" r:id="rId1"/>
-    <sheet name="ChpB" sheetId="32" r:id="rId2"/>
-    <sheet name="PilG osc" sheetId="27" r:id="rId3"/>
-    <sheet name="FimWX Jenal double" sheetId="25" r:id="rId4"/>
-    <sheet name="FimWX Jenal single" sheetId="24" r:id="rId5"/>
-    <sheet name="FimWX Jenal PC" sheetId="22" r:id="rId6"/>
-    <sheet name="chpB pilK rev PC" sheetId="31" r:id="rId7"/>
-    <sheet name="PilG DAE rev PC" sheetId="28" r:id="rId8"/>
-    <sheet name="PilGH rev PC" sheetId="20" r:id="rId9"/>
-    <sheet name="PilH rev PC" sheetId="29" r:id="rId10"/>
-    <sheet name="PilH DAE rev PC" sheetId="30" r:id="rId11"/>
-    <sheet name="FimX osc" sheetId="18" r:id="rId12"/>
-    <sheet name="PilG" sheetId="7" r:id="rId13"/>
-    <sheet name="PilH" sheetId="17" r:id="rId14"/>
-    <sheet name="FimX" sheetId="9" r:id="rId15"/>
-    <sheet name="FimW" sheetId="26" r:id="rId16"/>
-    <sheet name="CheA" sheetId="15" r:id="rId17"/>
+    <sheet name="PilK plasmid" sheetId="33" r:id="rId2"/>
+    <sheet name="ChpB" sheetId="32" r:id="rId3"/>
+    <sheet name="PilG osc" sheetId="27" r:id="rId4"/>
+    <sheet name="FimWX Jenal double" sheetId="25" r:id="rId5"/>
+    <sheet name="FimWX Jenal single" sheetId="24" r:id="rId6"/>
+    <sheet name="FimWX Jenal PC" sheetId="22" r:id="rId7"/>
+    <sheet name="chpB pilK rev PC" sheetId="31" r:id="rId8"/>
+    <sheet name="PilG DAE rev PC" sheetId="28" r:id="rId9"/>
+    <sheet name="PilGH rev PC" sheetId="20" r:id="rId10"/>
+    <sheet name="PilH rev PC" sheetId="29" r:id="rId11"/>
+    <sheet name="PilH DAE rev PC" sheetId="30" r:id="rId12"/>
+    <sheet name="FimX osc" sheetId="18" r:id="rId13"/>
+    <sheet name="PilG" sheetId="7" r:id="rId14"/>
+    <sheet name="PilH" sheetId="17" r:id="rId15"/>
+    <sheet name="FimX" sheetId="9" r:id="rId16"/>
+    <sheet name="FimW" sheetId="26" r:id="rId17"/>
+    <sheet name="CheA" sheetId="15" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="73">
   <si>
     <t>923 fliC- mNG_PilG</t>
   </si>
@@ -249,6 +250,12 @@
   </si>
   <si>
     <t>1719 mNG_PilG chpB-</t>
+  </si>
+  <si>
+    <t>1300 fliC- pilK- pCuAI_mNG_PilK</t>
+  </si>
+  <si>
+    <t>1659 fliC- pilK- pCuAIgent_mNG_PilK</t>
   </si>
 </sst>
 </file>
@@ -738,7 +745,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -761,6 +768,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1117,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04DCF00-92F5-4BE4-99BB-9BA50807F601}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A5" sqref="A5:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1132,470 +1143,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="4">
-        <v>20210317</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="A1" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="24">
+        <v>20230111</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="4">
-        <v>20210319</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="A2" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="24">
+        <v>20230111</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="4">
-        <v>20210304</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+      <c r="A3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="24">
+        <v>20230111</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="4">
-        <v>20210304</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
+      <c r="A4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="24">
+        <v>20230111</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="4">
-        <v>20210317</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
+      <c r="A5" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="17">
+        <v>20221019</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="4">
-        <v>20210319</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
+      <c r="A6" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="17">
+        <v>20221019</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6">
-        <v>20200916</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
+      <c r="A7" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="24">
+        <v>20220928</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="6">
-        <v>20200918</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
+      <c r="A8" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="24">
+        <v>20220928</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="6">
-        <v>20200924</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
+      <c r="A9" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="24">
+        <v>20221103</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="6">
-        <v>20210114</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
+      <c r="A10" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="24">
+        <v>20221103</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>20210115</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12">
-        <v>20210120</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="6">
-        <v>20210121</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
+      <c r="A13" s="21"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="6">
-        <v>20210126</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="6">
-        <v>20210128</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="6">
-        <v>20210129</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="16">
-        <v>20210202</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="21"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="16">
-        <v>20210203</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="16">
-        <v>20210205</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="16">
-        <v>20210211</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="16">
-        <v>20210212</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="16">
-        <v>20210304</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="16">
-        <v>20210317</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4">
-        <v>20210319</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="4">
-        <v>20210322</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="20">
-        <v>20210518</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
+      <c r="A26"/>
+      <c r="B26" s="16"/>
+      <c r="C26"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="16">
-        <v>20210520</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
+      <c r="A27"/>
+      <c r="B27" s="16"/>
+      <c r="C27"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="16">
-        <v>20210602</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
+      <c r="A28"/>
+      <c r="B28" s="16"/>
+      <c r="C28"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="16">
-        <v>20210603</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
+      <c r="A29"/>
+      <c r="B29" s="16"/>
+      <c r="C29"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="16">
-        <v>20210701</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
+      <c r="A30"/>
+      <c r="B30" s="16"/>
+      <c r="C30"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="16">
-        <v>20210714</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
+      <c r="A31"/>
+      <c r="B31" s="16"/>
+      <c r="C31"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="16">
-        <v>20210726</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2</v>
-      </c>
+      <c r="A32"/>
+      <c r="B32" s="16"/>
+      <c r="C32"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="16">
-        <v>202103222</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2</v>
-      </c>
+      <c r="A33"/>
+      <c r="B33" s="6"/>
+      <c r="C33"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="6">
-        <v>20200916</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2</v>
-      </c>
+      <c r="A34"/>
+      <c r="B34" s="6"/>
+      <c r="C34"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="6">
-        <v>20200918</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="6">
-        <v>20200924</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2</v>
-      </c>
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="6">
-        <v>20210304</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
+      <c r="A37"/>
+      <c r="B37" s="6"/>
+      <c r="C37"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38">
-        <v>20210317</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2</v>
-      </c>
+      <c r="A38"/>
+      <c r="B38" s="6"/>
+      <c r="C38"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39">
-        <v>20210319</v>
-      </c>
-      <c r="C39" t="s">
-        <v>2</v>
-      </c>
+      <c r="A39"/>
+      <c r="B39" s="20"/>
+      <c r="C39"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="6">
-        <v>20210721</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2</v>
-      </c>
+      <c r="C40"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="6">
-        <v>20210727</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42"/>
-      <c r="B42" s="20"/>
-      <c r="C42"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C43"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C44"/>
+      <c r="C41"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C44">
-    <sortCondition ref="A1:A44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C41">
+    <sortCondition ref="A1:A41"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1604,6 +1414,867 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E72D4B-E935-418C-9DE3-A7859F76A101}">
+  <dimension ref="A1:C76"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="29.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.84375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="16">
+        <v>20210716</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="16">
+        <v>20210721</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="20">
+        <v>20210727</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="20">
+        <v>20221109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="20">
+        <v>20221109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="20">
+        <v>20220216</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="20">
+        <v>20220315</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6">
+        <v>20200916</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6">
+        <v>20200918</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6">
+        <v>20200924</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6">
+        <v>20210114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>20210115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>20210120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="6">
+        <v>20210121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6">
+        <v>20210126</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="6">
+        <v>20210128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6">
+        <v>20210129</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="16">
+        <v>20210202</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="16">
+        <v>20210203</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="16">
+        <v>20210205</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3">
+        <v>20210211</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3">
+        <v>20210212</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>20210304</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>20210317</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4">
+        <v>20210319</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4">
+        <v>20210322</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="20">
+        <v>20210518</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="16">
+        <v>20210520</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="16">
+        <v>20210602</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="16">
+        <v>20210603</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="16">
+        <v>20210701</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="16">
+        <v>20210714</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="16">
+        <v>20210726</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="16">
+        <v>202103222</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="20">
+        <v>20221109</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="6">
+        <v>20200916</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="6">
+        <v>20200918</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="6">
+        <v>20200924</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="6">
+        <v>20210304</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40">
+        <v>20210317</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41">
+        <v>20210319</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="6">
+        <v>20210721</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="6">
+        <v>20210727</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="20">
+        <v>20210727</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="20">
+        <v>20210721</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="20">
+        <v>20210716</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="6">
+        <v>20210701</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="6">
+        <v>20210629</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="6">
+        <v>20210622</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="6">
+        <v>20210617</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>20210603</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>20210520</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="6">
+        <v>20210518</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="6">
+        <v>20210319</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="6">
+        <v>20210317</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="6">
+        <v>20210304</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="3">
+        <v>20210205</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="3">
+        <v>20210203</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="16">
+        <v>20210129</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="16">
+        <v>20200924</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="16">
+        <v>20200918</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="16">
+        <v>20200916</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="20">
+        <v>20221109</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="16">
+        <v>20211013</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="16">
+        <v>20220201</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="16">
+        <v>20220202</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="20">
+        <v>20221109</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" s="4">
+        <v>20210721</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="4">
+        <v>20210727</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="20">
+        <v>20210617</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="16">
+        <v>20210622</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="16">
+        <v>20210629</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="16">
+        <v>20200916</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="16">
+        <v>20200922</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="16">
+        <v>20200929</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="20">
+        <v>20221109</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C76">
+    <sortCondition ref="A69:A76"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5AF8F1-C899-4334-8FDE-5B3FF3E75BA2}">
   <dimension ref="A1:C59"/>
   <sheetViews>
@@ -1962,7 +2633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11C461A-C8E3-47DB-8FCB-B66A98FC9088}">
   <dimension ref="A1:C39"/>
   <sheetViews>
@@ -2361,7 +3032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D863D082-A1C1-4D0C-877A-1AA6280832AA}">
   <dimension ref="A1:D65"/>
   <sheetViews>
@@ -3045,7 +3716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3780089A-3929-41A5-8799-261F1091CD93}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -3177,7 +3848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F15E32-8E65-4DE5-ACAA-2E5056FF4EC6}">
   <dimension ref="A1:C29"/>
   <sheetViews>
@@ -3365,7 +4036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9986E60-FC9F-4228-B6F7-F912BCD1B551}">
   <dimension ref="A1:C29"/>
   <sheetViews>
@@ -3530,7 +4201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0059B8-1671-4845-88D0-DFF5D760DF8E}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -3609,7 +4280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79144628-DE4A-49A5-B624-B5F2FCCFC346}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -3784,6 +4455,284 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7370079-77C3-44DA-B609-5A58C6798F3F}">
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="34.4609375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.15234375" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.84375" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1">
+        <v>20220831</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2">
+        <v>20210916</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3">
+        <v>20210917</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <v>20210929</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5">
+        <v>20210914</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6">
+        <v>20210914</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>20230120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9"/>
+      <c r="B9" s="6"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10"/>
+      <c r="B10" s="6"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11"/>
+      <c r="B11" s="6"/>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12"/>
+      <c r="B12" s="6"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15"/>
+      <c r="B15" s="6"/>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16"/>
+      <c r="B16" s="6"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17"/>
+      <c r="B17" s="6"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18"/>
+      <c r="B18" s="6"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19"/>
+      <c r="B19" s="16"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20"/>
+      <c r="B20" s="16"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21"/>
+      <c r="B21" s="16"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22"/>
+      <c r="B22" s="16"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23"/>
+      <c r="B23" s="16"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24"/>
+      <c r="B24" s="16"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25"/>
+      <c r="B25" s="16"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26"/>
+      <c r="B26" s="4"/>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27"/>
+      <c r="B27" s="4"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28"/>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29"/>
+      <c r="B29" s="16"/>
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30"/>
+      <c r="B30" s="16"/>
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31"/>
+      <c r="B31" s="16"/>
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32"/>
+      <c r="B32" s="16"/>
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33"/>
+      <c r="B33" s="16"/>
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34"/>
+      <c r="B34" s="16"/>
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35"/>
+      <c r="B35" s="16"/>
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36"/>
+      <c r="B36" s="6"/>
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37"/>
+      <c r="B37" s="6"/>
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40"/>
+      <c r="B40" s="6"/>
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41"/>
+      <c r="B41" s="6"/>
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42"/>
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552F1D22-7228-4AC3-80C6-1032568BE385}">
   <dimension ref="A1:C68"/>
   <sheetViews>
@@ -4179,12 +5128,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ABE069-75BD-4161-BC41-B6B2CCBA19CD}">
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" activeCellId="4" sqref="E1:G2 E8:G9 E3:G4 E10:G13 E17:G18"/>
+      <selection activeCell="E17" activeCellId="2" sqref="E1:G2 E8:G9 E17:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4912,7 +5861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FC7B92-B936-4E24-B9B6-A5AB13F69F08}">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -5201,7 +6150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960007D1-80F8-455B-8B98-13347D41846B}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -5342,7 +6291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E79CF4B-48F1-4F7D-97E2-09D77EAEEA3F}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -5455,12 +6404,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B230B8-6F59-4AAD-ACFD-2D487649433A}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5847,10 +6796,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="4">
-        <v>20210120</v>
+        <v>64</v>
+      </c>
+      <c r="B35">
+        <v>20230125</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -5861,7 +6810,7 @@
         <v>65</v>
       </c>
       <c r="B36" s="4">
-        <v>20210121</v>
+        <v>20210120</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -5872,7 +6821,7 @@
         <v>65</v>
       </c>
       <c r="B37" s="4">
-        <v>20210126</v>
+        <v>20210121</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -5883,7 +6832,7 @@
         <v>65</v>
       </c>
       <c r="B38" s="4">
-        <v>20210211</v>
+        <v>20210126</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -5894,7 +6843,7 @@
         <v>65</v>
       </c>
       <c r="B39" s="4">
-        <v>20210212</v>
+        <v>20210211</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -5905,7 +6854,7 @@
         <v>65</v>
       </c>
       <c r="B40" s="4">
-        <v>20210726</v>
+        <v>20210212</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -5913,10 +6862,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" s="4">
-        <v>20210518</v>
+        <v>20210726</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -5927,7 +6876,7 @@
         <v>66</v>
       </c>
       <c r="B42" s="4">
-        <v>20210520</v>
+        <v>20210518</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -5938,7 +6887,7 @@
         <v>66</v>
       </c>
       <c r="B43" s="4">
-        <v>20210603</v>
+        <v>20210520</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -5946,10 +6895,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B44" s="4">
-        <v>20210518</v>
+        <v>20210603</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -5960,7 +6909,7 @@
         <v>67</v>
       </c>
       <c r="B45" s="4">
-        <v>20210520</v>
+        <v>20210518</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -5971,7 +6920,7 @@
         <v>67</v>
       </c>
       <c r="B46" s="4">
-        <v>20210603</v>
+        <v>20210520</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -5979,10 +6928,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="20">
-        <v>20210727</v>
+        <v>67</v>
+      </c>
+      <c r="B47" s="4">
+        <v>20210603</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -5993,7 +6942,7 @@
         <v>14</v>
       </c>
       <c r="B48" s="20">
-        <v>20210721</v>
+        <v>20210727</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -6004,7 +6953,7 @@
         <v>14</v>
       </c>
       <c r="B49" s="20">
-        <v>20210716</v>
+        <v>20210721</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -6014,8 +6963,8 @@
       <c r="A50" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="6">
-        <v>20210701</v>
+      <c r="B50" s="20">
+        <v>20210716</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -6026,7 +6975,7 @@
         <v>14</v>
       </c>
       <c r="B51" s="6">
-        <v>20210629</v>
+        <v>20210701</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -6037,7 +6986,7 @@
         <v>14</v>
       </c>
       <c r="B52" s="6">
-        <v>20210622</v>
+        <v>20210629</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -6048,7 +6997,7 @@
         <v>14</v>
       </c>
       <c r="B53" s="6">
-        <v>20210617</v>
+        <v>20210622</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -6058,8 +7007,8 @@
       <c r="A54" t="s">
         <v>14</v>
       </c>
-      <c r="B54">
-        <v>20210603</v>
+      <c r="B54" s="6">
+        <v>20210617</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -6070,7 +7019,7 @@
         <v>14</v>
       </c>
       <c r="B55">
-        <v>20210520</v>
+        <v>20210603</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -6080,8 +7029,8 @@
       <c r="A56" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="6">
-        <v>20210518</v>
+      <c r="B56">
+        <v>20210520</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -6092,7 +7041,7 @@
         <v>14</v>
       </c>
       <c r="B57" s="6">
-        <v>20210319</v>
+        <v>20210518</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
@@ -6103,7 +7052,7 @@
         <v>14</v>
       </c>
       <c r="B58" s="6">
-        <v>20210317</v>
+        <v>20210319</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
@@ -6114,7 +7063,7 @@
         <v>14</v>
       </c>
       <c r="B59" s="6">
-        <v>20210304</v>
+        <v>20210317</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
@@ -6124,8 +7073,8 @@
       <c r="A60" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="16">
-        <v>20210205</v>
+      <c r="B60" s="6">
+        <v>20210304</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -6136,7 +7085,7 @@
         <v>14</v>
       </c>
       <c r="B61" s="16">
-        <v>20210203</v>
+        <v>20210205</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
@@ -6147,7 +7096,7 @@
         <v>14</v>
       </c>
       <c r="B62" s="16">
-        <v>20210129</v>
+        <v>20210203</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
@@ -6158,7 +7107,7 @@
         <v>14</v>
       </c>
       <c r="B63" s="16">
-        <v>20200924</v>
+        <v>20210129</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
@@ -6169,7 +7118,7 @@
         <v>14</v>
       </c>
       <c r="B64" s="16">
-        <v>20200918</v>
+        <v>20200924</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
@@ -6180,7 +7129,7 @@
         <v>14</v>
       </c>
       <c r="B65" s="16">
-        <v>20200916</v>
+        <v>20200918</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
@@ -6190,10 +7139,21 @@
       <c r="A66" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="20">
+      <c r="B66" s="16">
+        <v>20200916</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="20">
         <v>20221109</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6203,7 +7163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9634E40C-0852-4258-B687-C779EE5F06C4}">
   <dimension ref="A1:C34"/>
   <sheetViews>
@@ -6597,865 +7557,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E72D4B-E935-418C-9DE3-A7859F76A101}">
-  <dimension ref="A1:C76"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="29.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.84375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="16">
-        <v>20210716</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="16">
-        <v>20210721</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="20">
-        <v>20210727</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="20">
-        <v>20221109</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="20">
-        <v>20221109</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="20">
-        <v>20220216</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="20">
-        <v>20220315</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="6">
-        <v>20200916</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="6">
-        <v>20200918</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="6">
-        <v>20200924</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="6">
-        <v>20210114</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12">
-        <v>20210115</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13">
-        <v>20210120</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="6">
-        <v>20210121</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="6">
-        <v>20210126</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="6">
-        <v>20210128</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="6">
-        <v>20210129</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="16">
-        <v>20210202</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="16">
-        <v>20210203</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="16">
-        <v>20210205</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="3">
-        <v>20210211</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3">
-        <v>20210212</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3">
-        <v>20210304</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3">
-        <v>20210317</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="4">
-        <v>20210319</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="4">
-        <v>20210322</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="20">
-        <v>20210518</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="16">
-        <v>20210520</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="16">
-        <v>20210602</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="16">
-        <v>20210603</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="16">
-        <v>20210701</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="16">
-        <v>20210714</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="16">
-        <v>20210726</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="16">
-        <v>202103222</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="20">
-        <v>20221109</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="6">
-        <v>20200916</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="6">
-        <v>20200918</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="6">
-        <v>20200924</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="6">
-        <v>20210304</v>
-      </c>
-      <c r="C39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40">
-        <v>20210317</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41">
-        <v>20210319</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="6">
-        <v>20210721</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="6">
-        <v>20210727</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="20">
-        <v>20210727</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="20">
-        <v>20210721</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="20">
-        <v>20210716</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="6">
-        <v>20210701</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="6">
-        <v>20210629</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="6">
-        <v>20210622</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="6">
-        <v>20210617</v>
-      </c>
-      <c r="C50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51">
-        <v>20210603</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52">
-        <v>20210520</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="6">
-        <v>20210518</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="6">
-        <v>20210319</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" s="6">
-        <v>20210317</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="6">
-        <v>20210304</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="3">
-        <v>20210205</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="3">
-        <v>20210203</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>14</v>
-      </c>
-      <c r="B59" s="16">
-        <v>20210129</v>
-      </c>
-      <c r="C59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" s="16">
-        <v>20200924</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="16">
-        <v>20200918</v>
-      </c>
-      <c r="C61" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>14</v>
-      </c>
-      <c r="B62" s="16">
-        <v>20200916</v>
-      </c>
-      <c r="C62" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>14</v>
-      </c>
-      <c r="B63" s="20">
-        <v>20221109</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A64" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64" s="16">
-        <v>20211013</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A65" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" s="16">
-        <v>20220201</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A66" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="16">
-        <v>20220202</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A67" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="20">
-        <v>20221109</v>
-      </c>
-      <c r="C67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>21</v>
-      </c>
-      <c r="B68" s="4">
-        <v>20210721</v>
-      </c>
-      <c r="C68" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>21</v>
-      </c>
-      <c r="B69" s="4">
-        <v>20210727</v>
-      </c>
-      <c r="C69" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70" s="20">
-        <v>20210617</v>
-      </c>
-      <c r="C70" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" s="16">
-        <v>20210622</v>
-      </c>
-      <c r="C71" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
-        <v>21</v>
-      </c>
-      <c r="B72" s="16">
-        <v>20210629</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73" s="16">
-        <v>20200916</v>
-      </c>
-      <c r="C73" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
-        <v>21</v>
-      </c>
-      <c r="B74" s="16">
-        <v>20200922</v>
-      </c>
-      <c r="C74" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
-        <v>21</v>
-      </c>
-      <c r="B75" s="16">
-        <v>20200929</v>
-      </c>
-      <c r="C75" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
-        <v>21</v>
-      </c>
-      <c r="B76" s="20">
-        <v>20221109</v>
-      </c>
-      <c r="C76" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C76">
-    <sortCondition ref="A69:A76"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>